--- a/Code/Results/Cases/Case_3_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008512087666335</v>
+        <v>1.044238316943338</v>
       </c>
       <c r="D2">
-        <v>1.02832945665431</v>
+        <v>1.049089240646592</v>
       </c>
       <c r="E2">
-        <v>1.023168832803404</v>
+        <v>1.051723471404605</v>
       </c>
       <c r="F2">
-        <v>1.032865790074933</v>
+        <v>1.061557240437975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050895364520915</v>
+        <v>1.038991381183959</v>
       </c>
       <c r="J2">
-        <v>1.030441150566681</v>
+        <v>1.049304472907919</v>
       </c>
       <c r="K2">
-        <v>1.039407736371757</v>
+        <v>1.051847270569546</v>
       </c>
       <c r="L2">
-        <v>1.034314556335863</v>
+        <v>1.054474182563662</v>
       </c>
       <c r="M2">
-        <v>1.043885480797937</v>
+        <v>1.064280977605849</v>
       </c>
       <c r="N2">
-        <v>1.013652822607092</v>
+        <v>1.020258757610625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014185942163945</v>
+        <v>1.045415301784194</v>
       </c>
       <c r="D3">
-        <v>1.032628624209141</v>
+        <v>1.049988191798903</v>
       </c>
       <c r="E3">
-        <v>1.027913054312553</v>
+        <v>1.052755896734827</v>
       </c>
       <c r="F3">
-        <v>1.037871715048711</v>
+        <v>1.062644639907438</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052587499736752</v>
+        <v>1.039241597475147</v>
       </c>
       <c r="J3">
-        <v>1.034297215144683</v>
+        <v>1.050127505318546</v>
       </c>
       <c r="K3">
-        <v>1.042860366896091</v>
+        <v>1.052558173561454</v>
       </c>
       <c r="L3">
-        <v>1.038200817671241</v>
+        <v>1.055318746365217</v>
       </c>
       <c r="M3">
-        <v>1.048041909459896</v>
+        <v>1.065182334213784</v>
       </c>
       <c r="N3">
-        <v>1.014967305570065</v>
+        <v>1.020536017625811</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017769604175042</v>
+        <v>1.046176727330375</v>
       </c>
       <c r="D4">
-        <v>1.035345046227147</v>
+        <v>1.050569403113178</v>
       </c>
       <c r="E4">
-        <v>1.030915571850761</v>
+        <v>1.053424117441139</v>
       </c>
       <c r="F4">
-        <v>1.041039176013339</v>
+        <v>1.063348362446693</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053641146283532</v>
+        <v>1.039401571391594</v>
       </c>
       <c r="J4">
-        <v>1.036729430898879</v>
+        <v>1.050659369771291</v>
       </c>
       <c r="K4">
-        <v>1.04503481160216</v>
+        <v>1.053017073169354</v>
       </c>
       <c r="L4">
-        <v>1.040654659483021</v>
+        <v>1.055864802486105</v>
       </c>
       <c r="M4">
-        <v>1.050666294337823</v>
+        <v>1.065765078046206</v>
       </c>
       <c r="N4">
-        <v>1.01579598357667</v>
+        <v>1.020715078685926</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019256081991728</v>
+        <v>1.046496792985091</v>
       </c>
       <c r="D5">
-        <v>1.03647196597761</v>
+        <v>1.050813631873336</v>
       </c>
       <c r="E5">
-        <v>1.032162376918317</v>
+        <v>1.053705079070315</v>
       </c>
       <c r="F5">
-        <v>1.042354308620578</v>
+        <v>1.06364423226291</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054074500761345</v>
+        <v>1.039468361664803</v>
       </c>
       <c r="J5">
-        <v>1.037737452781469</v>
+        <v>1.050882800239402</v>
       </c>
       <c r="K5">
-        <v>1.045935186556981</v>
+        <v>1.053209730895426</v>
       </c>
       <c r="L5">
-        <v>1.041672259172358</v>
+        <v>1.056094261149412</v>
       </c>
       <c r="M5">
-        <v>1.051754601039506</v>
+        <v>1.06600994555994</v>
       </c>
       <c r="N5">
-        <v>1.016139314520521</v>
+        <v>1.020790273512054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019504515043341</v>
+        <v>1.046550531244828</v>
       </c>
       <c r="D6">
-        <v>1.036660314152175</v>
+        <v>1.050854632363591</v>
       </c>
       <c r="E6">
-        <v>1.032370833270423</v>
+        <v>1.053752256216327</v>
       </c>
       <c r="F6">
-        <v>1.042574179023162</v>
+        <v>1.063693911574951</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054146707936635</v>
+        <v>1.039479548907299</v>
       </c>
       <c r="J6">
-        <v>1.037905871101867</v>
+        <v>1.050920305515065</v>
       </c>
       <c r="K6">
-        <v>1.046085570900628</v>
+        <v>1.053242063519119</v>
       </c>
       <c r="L6">
-        <v>1.041842313792411</v>
+        <v>1.056132782219799</v>
       </c>
       <c r="M6">
-        <v>1.05193647061019</v>
+        <v>1.066051052982697</v>
       </c>
       <c r="N6">
-        <v>1.016196670828136</v>
+        <v>1.02080289422202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01778954436625</v>
+        <v>1.046181004209715</v>
       </c>
       <c r="D7">
-        <v>1.035360162608463</v>
+        <v>1.050572666951689</v>
       </c>
       <c r="E7">
-        <v>1.03093229159602</v>
+        <v>1.053427871500118</v>
       </c>
       <c r="F7">
-        <v>1.041056812693115</v>
+        <v>1.063352315775545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053646974140168</v>
+        <v>1.039402465664914</v>
       </c>
       <c r="J7">
-        <v>1.036742956296961</v>
+        <v>1.050662355909298</v>
       </c>
       <c r="K7">
-        <v>1.045046895870038</v>
+        <v>1.053019648507139</v>
       </c>
       <c r="L7">
-        <v>1.040668310966608</v>
+        <v>1.05586786892957</v>
       </c>
       <c r="M7">
-        <v>1.050680894455933</v>
+        <v>1.065768350441171</v>
       </c>
       <c r="N7">
-        <v>1.015800590759299</v>
+        <v>1.020716083766723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010448313894952</v>
+        <v>1.044636118832797</v>
       </c>
       <c r="D8">
-        <v>1.02979630004483</v>
+        <v>1.049393142810046</v>
       </c>
       <c r="E8">
-        <v>1.02478651279525</v>
+        <v>1.052072348879072</v>
       </c>
       <c r="F8">
-        <v>1.03457284772012</v>
+        <v>1.061924711198195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05147595290516</v>
+        <v>1.039076343109316</v>
       </c>
       <c r="J8">
-        <v>1.03175771389409</v>
+        <v>1.049582764234902</v>
       </c>
       <c r="K8">
-        <v>1.040587238340441</v>
+        <v>1.052087751892233</v>
       </c>
       <c r="L8">
-        <v>1.035640884328179</v>
+        <v>1.054759696758055</v>
       </c>
       <c r="M8">
-        <v>1.045304018851354</v>
+        <v>1.064585697800971</v>
       </c>
       <c r="N8">
-        <v>1.014101708742472</v>
+        <v>1.020352530354477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9967967776160321</v>
+        <v>1.041912534768207</v>
       </c>
       <c r="D9">
-        <v>1.019462048585673</v>
+        <v>1.047311064500521</v>
       </c>
       <c r="E9">
-        <v>1.01340943920183</v>
+        <v>1.049685049290053</v>
       </c>
       <c r="F9">
-        <v>1.022564356104992</v>
+        <v>1.059409856885344</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047320472712371</v>
+        <v>1.038486872757717</v>
       </c>
       <c r="J9">
-        <v>1.022463159217951</v>
+        <v>1.047675060771918</v>
       </c>
       <c r="K9">
-        <v>1.032247066437801</v>
+        <v>1.050437180310324</v>
       </c>
       <c r="L9">
-        <v>1.026288640464723</v>
+        <v>1.052803621553143</v>
       </c>
       <c r="M9">
-        <v>1.035301651021415</v>
+        <v>1.062497913293325</v>
       </c>
       <c r="N9">
-        <v>1.010931160214398</v>
+        <v>1.019709258847602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9871484058015884</v>
+        <v>1.040095858710557</v>
       </c>
       <c r="D10">
-        <v>1.012172372462778</v>
+        <v>1.045920577227184</v>
       </c>
       <c r="E10">
-        <v>1.005408322755469</v>
+        <v>1.048094366823236</v>
       </c>
       <c r="F10">
-        <v>1.014115679123192</v>
+        <v>1.057733776350814</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044307525131384</v>
+        <v>1.03808394184481</v>
       </c>
       <c r="J10">
-        <v>1.015881361758528</v>
+        <v>1.046399646120801</v>
       </c>
       <c r="K10">
-        <v>1.026325274751622</v>
+        <v>1.049331101218261</v>
       </c>
       <c r="L10">
-        <v>1.019680610064591</v>
+        <v>1.051497302980386</v>
       </c>
       <c r="M10">
-        <v>1.0282346634591</v>
+        <v>1.061103478519075</v>
       </c>
       <c r="N10">
-        <v>1.008684372977591</v>
+        <v>1.019278627010793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9828241591146391</v>
+        <v>1.039308973027242</v>
       </c>
       <c r="D11">
-        <v>1.008910061005112</v>
+        <v>1.045317899852219</v>
       </c>
       <c r="E11">
-        <v>1.001832975632896</v>
+        <v>1.047405778587477</v>
       </c>
       <c r="F11">
-        <v>1.010339539062722</v>
+        <v>1.057008123859343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042940145692901</v>
+        <v>1.03790710759229</v>
       </c>
       <c r="J11">
-        <v>1.012929350884728</v>
+        <v>1.045846512639425</v>
       </c>
       <c r="K11">
-        <v>1.023665880310959</v>
+        <v>1.048850800670264</v>
       </c>
       <c r="L11">
-        <v>1.016720407306901</v>
+        <v>1.050931107720998</v>
       </c>
       <c r="M11">
-        <v>1.025069065943798</v>
+        <v>1.060499054956047</v>
       </c>
       <c r="N11">
-        <v>1.007676400512159</v>
+        <v>1.019091733693821</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9811943746543776</v>
+        <v>1.039016648914366</v>
       </c>
       <c r="D12">
-        <v>1.007681368689684</v>
+        <v>1.045093949995188</v>
       </c>
       <c r="E12">
-        <v>1.000487153865971</v>
+        <v>1.047150033759031</v>
       </c>
       <c r="F12">
-        <v>1.008918018824141</v>
+        <v>1.056738598720725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042422322633617</v>
+        <v>1.037841068399889</v>
       </c>
       <c r="J12">
-        <v>1.011816511378353</v>
+        <v>1.045640922647226</v>
       </c>
       <c r="K12">
-        <v>1.022662870740167</v>
+        <v>1.048672190674376</v>
       </c>
       <c r="L12">
-        <v>1.015605026724192</v>
+        <v>1.050720714158919</v>
       </c>
       <c r="M12">
-        <v>1.023876335118203</v>
+        <v>1.060274450704316</v>
       </c>
       <c r="N12">
-        <v>1.007296389455496</v>
+        <v>1.019022248862541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9815450621501631</v>
+        <v>1.039079355254776</v>
       </c>
       <c r="D13">
-        <v>1.007945710690545</v>
+        <v>1.045141992018052</v>
       </c>
       <c r="E13">
-        <v>1.000776660996848</v>
+        <v>1.047204890659821</v>
       </c>
       <c r="F13">
-        <v>1.009223815079015</v>
+        <v>1.056796412133307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042533854569085</v>
+        <v>1.0378552501011</v>
       </c>
       <c r="J13">
-        <v>1.012055975303086</v>
+        <v>1.045685028366086</v>
       </c>
       <c r="K13">
-        <v>1.022878722284931</v>
+        <v>1.048710512409194</v>
       </c>
       <c r="L13">
-        <v>1.015845012564361</v>
+        <v>1.050765848078956</v>
       </c>
       <c r="M13">
-        <v>1.02413296165901</v>
+        <v>1.060322633362577</v>
       </c>
       <c r="N13">
-        <v>1.007378162427373</v>
+        <v>1.019037156509057</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9826899309518869</v>
+        <v>1.039284810245465</v>
       </c>
       <c r="D14">
-        <v>1.008808848420013</v>
+        <v>1.045299389898008</v>
       </c>
       <c r="E14">
-        <v>1.001722099163733</v>
+        <v>1.047384638083274</v>
       </c>
       <c r="F14">
-        <v>1.010222428469896</v>
+        <v>1.056985844535653</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042897547577799</v>
+        <v>1.037901656016331</v>
       </c>
       <c r="J14">
-        <v>1.01283770247935</v>
+        <v>1.045829521195578</v>
       </c>
       <c r="K14">
-        <v>1.023583286550759</v>
+        <v>1.048836040896947</v>
       </c>
       <c r="L14">
-        <v>1.016628538459307</v>
+        <v>1.050913718229582</v>
       </c>
       <c r="M14">
-        <v>1.024970825216245</v>
+        <v>1.060480491028711</v>
       </c>
       <c r="N14">
-        <v>1.007645105051207</v>
+        <v>1.019085991369488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9833921502699585</v>
+        <v>1.039411392529132</v>
       </c>
       <c r="D15">
-        <v>1.009338381200773</v>
+        <v>1.04539635616737</v>
       </c>
       <c r="E15">
-        <v>1.002302223439246</v>
+        <v>1.047495390026211</v>
       </c>
       <c r="F15">
-        <v>1.010835165997488</v>
+        <v>1.057102561990951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043120301295474</v>
+        <v>1.037930201176883</v>
       </c>
       <c r="J15">
-        <v>1.013317154908023</v>
+        <v>1.045918530535751</v>
       </c>
       <c r="K15">
-        <v>1.024015350882344</v>
+        <v>1.048913355963008</v>
       </c>
       <c r="L15">
-        <v>1.017109166450673</v>
+        <v>1.051004814833094</v>
       </c>
       <c r="M15">
-        <v>1.025484790540864</v>
+        <v>1.060577739814105</v>
       </c>
       <c r="N15">
-        <v>1.007808824026261</v>
+        <v>1.019116071608232</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9874321761359185</v>
+        <v>1.04014807624472</v>
       </c>
       <c r="D16">
-        <v>1.012386566163683</v>
+        <v>1.045960562531865</v>
       </c>
       <c r="E16">
-        <v>1.005643177888538</v>
+        <v>1.048140070052401</v>
       </c>
       <c r="F16">
-        <v>1.014363707486564</v>
+        <v>1.057781937591566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04439691067297</v>
+        <v>1.038095627964832</v>
       </c>
       <c r="J16">
-        <v>1.016075043667469</v>
+        <v>1.046436337358992</v>
       </c>
       <c r="K16">
-        <v>1.026499689971259</v>
+        <v>1.049362948465546</v>
       </c>
       <c r="L16">
-        <v>1.019874904517059</v>
+        <v>1.051534867833142</v>
       </c>
       <c r="M16">
-        <v>1.028442444189105</v>
+        <v>1.061143578914685</v>
       </c>
       <c r="N16">
-        <v>1.008750501637118</v>
+        <v>1.019291021493917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899261110869618</v>
+        <v>1.040610109533096</v>
       </c>
       <c r="D17">
-        <v>1.01426958231488</v>
+        <v>1.046314316769289</v>
       </c>
       <c r="E17">
-        <v>1.007708436057593</v>
+        <v>1.048544510574196</v>
       </c>
       <c r="F17">
-        <v>1.016544717513169</v>
+        <v>1.058208118600256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045180561140722</v>
+        <v>1.038198763212842</v>
       </c>
       <c r="J17">
-        <v>1.017776995189541</v>
+        <v>1.046760910271346</v>
       </c>
       <c r="K17">
-        <v>1.028031955986478</v>
+        <v>1.049644601226944</v>
       </c>
       <c r="L17">
-        <v>1.021582645042789</v>
+        <v>1.051867208149447</v>
       </c>
       <c r="M17">
-        <v>1.030268745966879</v>
+        <v>1.061498347276946</v>
       </c>
       <c r="N17">
-        <v>1.009331569023798</v>
+        <v>1.019400648506613</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9913667651868172</v>
+        <v>1.040879581442395</v>
       </c>
       <c r="D18">
-        <v>1.015357776205998</v>
+        <v>1.046520599002683</v>
       </c>
       <c r="E18">
-        <v>1.008902456078939</v>
+        <v>1.048780432052917</v>
       </c>
       <c r="F18">
-        <v>1.017805583194633</v>
+        <v>1.058456712609434</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045631631732437</v>
+        <v>1.038258692319826</v>
       </c>
       <c r="J18">
-        <v>1.018759940584362</v>
+        <v>1.046950144221374</v>
       </c>
       <c r="K18">
-        <v>1.028916577459939</v>
+        <v>1.049808753235291</v>
       </c>
       <c r="L18">
-        <v>1.022569270749133</v>
+        <v>1.052061003546034</v>
       </c>
       <c r="M18">
-        <v>1.031323887585788</v>
+        <v>1.061705217488437</v>
       </c>
       <c r="N18">
-        <v>1.009667133234193</v>
+        <v>1.019464550913006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9918556588761548</v>
+        <v>1.040971460332051</v>
       </c>
       <c r="D19">
-        <v>1.015727132332057</v>
+        <v>1.046590926321086</v>
       </c>
       <c r="E19">
-        <v>1.009307819094988</v>
+        <v>1.048860878282935</v>
       </c>
       <c r="F19">
-        <v>1.018233626987727</v>
+        <v>1.058541478433082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045784428298139</v>
+        <v>1.03827908793841</v>
       </c>
       <c r="J19">
-        <v>1.0190934705962</v>
+        <v>1.047014653895006</v>
       </c>
       <c r="K19">
-        <v>1.029216688676449</v>
+        <v>1.049864702575782</v>
       </c>
       <c r="L19">
-        <v>1.022904106421743</v>
+        <v>1.052127073784747</v>
       </c>
       <c r="M19">
-        <v>1.031681978689415</v>
+        <v>1.061775744698413</v>
       </c>
       <c r="N19">
-        <v>1.009780991208467</v>
+        <v>1.019486333004086</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9896599960618879</v>
+        <v>1.040560540258624</v>
       </c>
       <c r="D20">
-        <v>1.014068608192262</v>
+        <v>1.046276368147712</v>
       </c>
       <c r="E20">
-        <v>1.007487958706231</v>
+        <v>1.048501116059829</v>
       </c>
       <c r="F20">
-        <v>1.016311890874231</v>
+        <v>1.05816239239894</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045097108881803</v>
+        <v>1.03818772135441</v>
       </c>
       <c r="J20">
-        <v>1.017595409818629</v>
+        <v>1.046726095357328</v>
       </c>
       <c r="K20">
-        <v>1.027868508170287</v>
+        <v>1.049614396133835</v>
       </c>
       <c r="L20">
-        <v>1.021400406977093</v>
+        <v>1.051831556674649</v>
       </c>
       <c r="M20">
-        <v>1.0300738538739</v>
+        <v>1.061460290217644</v>
       </c>
       <c r="N20">
-        <v>1.009269576102456</v>
+        <v>1.01938889082597</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9823534594942401</v>
+        <v>1.039224309982309</v>
       </c>
       <c r="D21">
-        <v>1.008555151760746</v>
+        <v>1.045253042595909</v>
       </c>
       <c r="E21">
-        <v>1.001444191557357</v>
+        <v>1.047331706193697</v>
       </c>
       <c r="F21">
-        <v>1.009928893407006</v>
+        <v>1.056930061020126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042790726975389</v>
+        <v>1.03788800043394</v>
       </c>
       <c r="J21">
-        <v>1.012607962617294</v>
+        <v>1.045786975297663</v>
       </c>
       <c r="K21">
-        <v>1.023376236832678</v>
+        <v>1.048799081548813</v>
       </c>
       <c r="L21">
-        <v>1.016398254845526</v>
+        <v>1.050870176464575</v>
       </c>
       <c r="M21">
-        <v>1.024724570183719</v>
+        <v>1.060434008492591</v>
       </c>
       <c r="N21">
-        <v>1.00756665465121</v>
+        <v>1.019071612497734</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9776223142484426</v>
+        <v>1.03838393822367</v>
       </c>
       <c r="D22">
-        <v>1.004990126051166</v>
+        <v>1.044609124112225</v>
       </c>
       <c r="E22">
-        <v>0.997540736860323</v>
+        <v>1.046596610557763</v>
       </c>
       <c r="F22">
-        <v>1.005805664084382</v>
+        <v>1.056155328931732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041282958081029</v>
+        <v>1.037697499554692</v>
       </c>
       <c r="J22">
-        <v>1.009377105442075</v>
+        <v>1.04519575150723</v>
       </c>
       <c r="K22">
-        <v>1.020463371532309</v>
+        <v>1.048285274658959</v>
       </c>
       <c r="L22">
-        <v>1.013161070167542</v>
+        <v>1.050265235502829</v>
       </c>
       <c r="M22">
-        <v>1.021262980359693</v>
+        <v>1.059788197771026</v>
       </c>
       <c r="N22">
-        <v>1.006463343175185</v>
+        <v>1.018871754716415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9801439544758171</v>
+        <v>1.038829457644829</v>
       </c>
       <c r="D23">
-        <v>1.00688971664033</v>
+        <v>1.044950526263251</v>
       </c>
       <c r="E23">
-        <v>0.999620247340128</v>
+        <v>1.046986283852695</v>
       </c>
       <c r="F23">
-        <v>1.00800231897723</v>
+        <v>1.056566021396874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042087895247541</v>
+        <v>1.037798682459764</v>
       </c>
       <c r="J23">
-        <v>1.011099211936019</v>
+        <v>1.045509242898573</v>
       </c>
       <c r="K23">
-        <v>1.022016232968141</v>
+        <v>1.048557766028746</v>
       </c>
       <c r="L23">
-        <v>1.014886244938657</v>
+        <v>1.050585972176144</v>
       </c>
       <c r="M23">
-        <v>1.023107719567958</v>
+        <v>1.060130606295264</v>
       </c>
       <c r="N23">
-        <v>1.007051440168256</v>
+        <v>1.01897773846406</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9897802851848014</v>
+        <v>1.040582938554625</v>
       </c>
       <c r="D24">
-        <v>1.014159451000211</v>
+        <v>1.046293515671052</v>
       </c>
       <c r="E24">
-        <v>1.007587615636264</v>
+        <v>1.048520724116558</v>
       </c>
       <c r="F24">
-        <v>1.016417129982901</v>
+        <v>1.05818305407035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0451348359312</v>
+        <v>1.038192711399112</v>
       </c>
       <c r="J24">
-        <v>1.017677490562783</v>
+        <v>1.046741826977436</v>
       </c>
       <c r="K24">
-        <v>1.027942391331481</v>
+        <v>1.04962804492064</v>
       </c>
       <c r="L24">
-        <v>1.021482781709428</v>
+        <v>1.051847666205262</v>
       </c>
       <c r="M24">
-        <v>1.03016194838661</v>
+        <v>1.061477486750231</v>
       </c>
       <c r="N24">
-        <v>1.009297598402025</v>
+        <v>1.019394203742885</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000417294895664</v>
+        <v>1.042616808666903</v>
       </c>
       <c r="D25">
-        <v>1.022200805728824</v>
+        <v>1.047849760037479</v>
       </c>
       <c r="E25">
-        <v>1.016420296808969</v>
+        <v>1.050302071568302</v>
       </c>
       <c r="F25">
-        <v>1.025742926473443</v>
+        <v>1.060059918811322</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04843589564402</v>
+        <v>1.038641018861474</v>
       </c>
       <c r="J25">
-        <v>1.024930623559372</v>
+        <v>1.048168882164471</v>
       </c>
       <c r="K25">
-        <v>1.034463988033884</v>
+        <v>1.050864895720954</v>
       </c>
       <c r="L25">
-        <v>1.028768946426504</v>
+        <v>1.053309711727438</v>
       </c>
       <c r="M25">
-        <v>1.037954340728751</v>
+        <v>1.063038108317687</v>
       </c>
       <c r="N25">
-        <v>1.011773172667179</v>
+        <v>1.01987587393532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044238316943338</v>
+        <v>1.008512087666334</v>
       </c>
       <c r="D2">
-        <v>1.049089240646592</v>
+        <v>1.02832945665431</v>
       </c>
       <c r="E2">
-        <v>1.051723471404605</v>
+        <v>1.023168832803403</v>
       </c>
       <c r="F2">
-        <v>1.061557240437975</v>
+        <v>1.032865790074933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038991381183959</v>
+        <v>1.050895364520915</v>
       </c>
       <c r="J2">
-        <v>1.049304472907919</v>
+        <v>1.030441150566681</v>
       </c>
       <c r="K2">
-        <v>1.051847270569546</v>
+        <v>1.039407736371756</v>
       </c>
       <c r="L2">
-        <v>1.054474182563662</v>
+        <v>1.034314556335862</v>
       </c>
       <c r="M2">
-        <v>1.064280977605849</v>
+        <v>1.043885480797937</v>
       </c>
       <c r="N2">
-        <v>1.020258757610625</v>
+        <v>1.013652822607091</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045415301784194</v>
+        <v>1.014185942163945</v>
       </c>
       <c r="D3">
-        <v>1.049988191798903</v>
+        <v>1.032628624209141</v>
       </c>
       <c r="E3">
-        <v>1.052755896734827</v>
+        <v>1.027913054312553</v>
       </c>
       <c r="F3">
-        <v>1.062644639907438</v>
+        <v>1.037871715048711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039241597475147</v>
+        <v>1.052587499736752</v>
       </c>
       <c r="J3">
-        <v>1.050127505318546</v>
+        <v>1.034297215144683</v>
       </c>
       <c r="K3">
-        <v>1.052558173561454</v>
+        <v>1.042860366896091</v>
       </c>
       <c r="L3">
-        <v>1.055318746365217</v>
+        <v>1.03820081767124</v>
       </c>
       <c r="M3">
-        <v>1.065182334213784</v>
+        <v>1.048041909459896</v>
       </c>
       <c r="N3">
-        <v>1.020536017625811</v>
+        <v>1.014967305570065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046176727330375</v>
+        <v>1.017769604175042</v>
       </c>
       <c r="D4">
-        <v>1.050569403113178</v>
+        <v>1.035345046227147</v>
       </c>
       <c r="E4">
-        <v>1.053424117441139</v>
+        <v>1.030915571850761</v>
       </c>
       <c r="F4">
-        <v>1.063348362446693</v>
+        <v>1.041039176013339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039401571391594</v>
+        <v>1.053641146283533</v>
       </c>
       <c r="J4">
-        <v>1.050659369771291</v>
+        <v>1.036729430898879</v>
       </c>
       <c r="K4">
-        <v>1.053017073169354</v>
+        <v>1.045034811602161</v>
       </c>
       <c r="L4">
-        <v>1.055864802486105</v>
+        <v>1.040654659483021</v>
       </c>
       <c r="M4">
-        <v>1.065765078046206</v>
+        <v>1.050666294337823</v>
       </c>
       <c r="N4">
-        <v>1.020715078685926</v>
+        <v>1.01579598357667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046496792985091</v>
+        <v>1.019256081991728</v>
       </c>
       <c r="D5">
-        <v>1.050813631873336</v>
+        <v>1.03647196597761</v>
       </c>
       <c r="E5">
-        <v>1.053705079070315</v>
+        <v>1.032162376918317</v>
       </c>
       <c r="F5">
-        <v>1.06364423226291</v>
+        <v>1.042354308620578</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039468361664803</v>
+        <v>1.054074500761345</v>
       </c>
       <c r="J5">
-        <v>1.050882800239402</v>
+        <v>1.037737452781468</v>
       </c>
       <c r="K5">
-        <v>1.053209730895426</v>
+        <v>1.045935186556981</v>
       </c>
       <c r="L5">
-        <v>1.056094261149412</v>
+        <v>1.041672259172358</v>
       </c>
       <c r="M5">
-        <v>1.06600994555994</v>
+        <v>1.051754601039506</v>
       </c>
       <c r="N5">
-        <v>1.020790273512054</v>
+        <v>1.01613931452052</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046550531244828</v>
+        <v>1.019504515043342</v>
       </c>
       <c r="D6">
-        <v>1.050854632363591</v>
+        <v>1.036660314152175</v>
       </c>
       <c r="E6">
-        <v>1.053752256216327</v>
+        <v>1.032370833270424</v>
       </c>
       <c r="F6">
-        <v>1.063693911574951</v>
+        <v>1.042574179023163</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039479548907299</v>
+        <v>1.054146707936635</v>
       </c>
       <c r="J6">
-        <v>1.050920305515065</v>
+        <v>1.037905871101868</v>
       </c>
       <c r="K6">
-        <v>1.053242063519119</v>
+        <v>1.046085570900628</v>
       </c>
       <c r="L6">
-        <v>1.056132782219799</v>
+        <v>1.041842313792412</v>
       </c>
       <c r="M6">
-        <v>1.066051052982697</v>
+        <v>1.051936470610191</v>
       </c>
       <c r="N6">
-        <v>1.02080289422202</v>
+        <v>1.016196670828136</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046181004209715</v>
+        <v>1.01778954436625</v>
       </c>
       <c r="D7">
-        <v>1.050572666951689</v>
+        <v>1.035360162608463</v>
       </c>
       <c r="E7">
-        <v>1.053427871500118</v>
+        <v>1.03093229159602</v>
       </c>
       <c r="F7">
-        <v>1.063352315775545</v>
+        <v>1.041056812693115</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039402465664914</v>
+        <v>1.053646974140168</v>
       </c>
       <c r="J7">
-        <v>1.050662355909298</v>
+        <v>1.036742956296961</v>
       </c>
       <c r="K7">
-        <v>1.053019648507139</v>
+        <v>1.045046895870039</v>
       </c>
       <c r="L7">
-        <v>1.05586786892957</v>
+        <v>1.040668310966609</v>
       </c>
       <c r="M7">
-        <v>1.065768350441171</v>
+        <v>1.050680894455934</v>
       </c>
       <c r="N7">
-        <v>1.020716083766723</v>
+        <v>1.015800590759299</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044636118832797</v>
+        <v>1.010448313894951</v>
       </c>
       <c r="D8">
-        <v>1.049393142810046</v>
+        <v>1.029796300044828</v>
       </c>
       <c r="E8">
-        <v>1.052072348879072</v>
+        <v>1.024786512795248</v>
       </c>
       <c r="F8">
-        <v>1.061924711198195</v>
+        <v>1.034572847720118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039076343109316</v>
+        <v>1.051475952905159</v>
       </c>
       <c r="J8">
-        <v>1.049582764234902</v>
+        <v>1.031757713894089</v>
       </c>
       <c r="K8">
-        <v>1.052087751892233</v>
+        <v>1.04058723834044</v>
       </c>
       <c r="L8">
-        <v>1.054759696758055</v>
+        <v>1.035640884328178</v>
       </c>
       <c r="M8">
-        <v>1.064585697800971</v>
+        <v>1.045304018851352</v>
       </c>
       <c r="N8">
-        <v>1.020352530354477</v>
+        <v>1.014101708742472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041912534768207</v>
+        <v>0.9967967776160311</v>
       </c>
       <c r="D9">
-        <v>1.047311064500521</v>
+        <v>1.019462048585672</v>
       </c>
       <c r="E9">
-        <v>1.049685049290053</v>
+        <v>1.013409439201828</v>
       </c>
       <c r="F9">
-        <v>1.059409856885344</v>
+        <v>1.022564356104991</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038486872757717</v>
+        <v>1.04732047271237</v>
       </c>
       <c r="J9">
-        <v>1.047675060771918</v>
+        <v>1.02246315921795</v>
       </c>
       <c r="K9">
-        <v>1.050437180310324</v>
+        <v>1.032247066437799</v>
       </c>
       <c r="L9">
-        <v>1.052803621553143</v>
+        <v>1.026288640464722</v>
       </c>
       <c r="M9">
-        <v>1.062497913293325</v>
+        <v>1.035301651021414</v>
       </c>
       <c r="N9">
-        <v>1.019709258847602</v>
+        <v>1.010931160214397</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040095858710557</v>
+        <v>0.9871484058015877</v>
       </c>
       <c r="D10">
-        <v>1.045920577227184</v>
+        <v>1.012172372462777</v>
       </c>
       <c r="E10">
-        <v>1.048094366823236</v>
+        <v>1.005408322755468</v>
       </c>
       <c r="F10">
-        <v>1.057733776350814</v>
+        <v>1.014115679123192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03808394184481</v>
+        <v>1.044307525131384</v>
       </c>
       <c r="J10">
-        <v>1.046399646120801</v>
+        <v>1.015881361758528</v>
       </c>
       <c r="K10">
-        <v>1.049331101218261</v>
+        <v>1.026325274751621</v>
       </c>
       <c r="L10">
-        <v>1.051497302980386</v>
+        <v>1.019680610064591</v>
       </c>
       <c r="M10">
-        <v>1.061103478519075</v>
+        <v>1.028234663459099</v>
       </c>
       <c r="N10">
-        <v>1.019278627010793</v>
+        <v>1.008684372977591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039308973027242</v>
+        <v>0.9828241591146397</v>
       </c>
       <c r="D11">
-        <v>1.045317899852219</v>
+        <v>1.008910061005112</v>
       </c>
       <c r="E11">
-        <v>1.047405778587477</v>
+        <v>1.001832975632897</v>
       </c>
       <c r="F11">
-        <v>1.057008123859343</v>
+        <v>1.010339539062723</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03790710759229</v>
+        <v>1.042940145692901</v>
       </c>
       <c r="J11">
-        <v>1.045846512639425</v>
+        <v>1.012929350884729</v>
       </c>
       <c r="K11">
-        <v>1.048850800670264</v>
+        <v>1.02366588031096</v>
       </c>
       <c r="L11">
-        <v>1.050931107720998</v>
+        <v>1.016720407306901</v>
       </c>
       <c r="M11">
-        <v>1.060499054956047</v>
+        <v>1.025069065943798</v>
       </c>
       <c r="N11">
-        <v>1.019091733693821</v>
+        <v>1.007676400512159</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039016648914366</v>
+        <v>0.9811943746543771</v>
       </c>
       <c r="D12">
-        <v>1.045093949995188</v>
+        <v>1.007681368689684</v>
       </c>
       <c r="E12">
-        <v>1.047150033759031</v>
+        <v>1.000487153865971</v>
       </c>
       <c r="F12">
-        <v>1.056738598720725</v>
+        <v>1.008918018824141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037841068399889</v>
+        <v>1.042422322633617</v>
       </c>
       <c r="J12">
-        <v>1.045640922647226</v>
+        <v>1.011816511378352</v>
       </c>
       <c r="K12">
-        <v>1.048672190674376</v>
+        <v>1.022662870740166</v>
       </c>
       <c r="L12">
-        <v>1.050720714158919</v>
+        <v>1.015605026724192</v>
       </c>
       <c r="M12">
-        <v>1.060274450704316</v>
+        <v>1.023876335118203</v>
       </c>
       <c r="N12">
-        <v>1.019022248862541</v>
+        <v>1.007296389455495</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039079355254776</v>
+        <v>0.9815450621501627</v>
       </c>
       <c r="D13">
-        <v>1.045141992018052</v>
+        <v>1.007945710690544</v>
       </c>
       <c r="E13">
-        <v>1.047204890659821</v>
+        <v>1.000776660996848</v>
       </c>
       <c r="F13">
-        <v>1.056796412133307</v>
+        <v>1.009223815079014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0378552501011</v>
+        <v>1.042533854569085</v>
       </c>
       <c r="J13">
-        <v>1.045685028366086</v>
+        <v>1.012055975303086</v>
       </c>
       <c r="K13">
-        <v>1.048710512409194</v>
+        <v>1.022878722284931</v>
       </c>
       <c r="L13">
-        <v>1.050765848078956</v>
+        <v>1.015845012564361</v>
       </c>
       <c r="M13">
-        <v>1.060322633362577</v>
+        <v>1.02413296165901</v>
       </c>
       <c r="N13">
-        <v>1.019037156509057</v>
+        <v>1.007378162427373</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039284810245465</v>
+        <v>0.9826899309518868</v>
       </c>
       <c r="D14">
-        <v>1.045299389898008</v>
+        <v>1.008808848420014</v>
       </c>
       <c r="E14">
-        <v>1.047384638083274</v>
+        <v>1.001722099163733</v>
       </c>
       <c r="F14">
-        <v>1.056985844535653</v>
+        <v>1.010222428469896</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037901656016331</v>
+        <v>1.042897547577799</v>
       </c>
       <c r="J14">
-        <v>1.045829521195578</v>
+        <v>1.01283770247935</v>
       </c>
       <c r="K14">
-        <v>1.048836040896947</v>
+        <v>1.023583286550759</v>
       </c>
       <c r="L14">
-        <v>1.050913718229582</v>
+        <v>1.016628538459307</v>
       </c>
       <c r="M14">
-        <v>1.060480491028711</v>
+        <v>1.024970825216245</v>
       </c>
       <c r="N14">
-        <v>1.019085991369488</v>
+        <v>1.007645105051207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039411392529132</v>
+        <v>0.9833921502699575</v>
       </c>
       <c r="D15">
-        <v>1.04539635616737</v>
+        <v>1.009338381200772</v>
       </c>
       <c r="E15">
-        <v>1.047495390026211</v>
+        <v>1.002302223439245</v>
       </c>
       <c r="F15">
-        <v>1.057102561990951</v>
+        <v>1.010835165997487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037930201176883</v>
+        <v>1.043120301295474</v>
       </c>
       <c r="J15">
-        <v>1.045918530535751</v>
+        <v>1.013317154908022</v>
       </c>
       <c r="K15">
-        <v>1.048913355963008</v>
+        <v>1.024015350882343</v>
       </c>
       <c r="L15">
-        <v>1.051004814833094</v>
+        <v>1.017109166450672</v>
       </c>
       <c r="M15">
-        <v>1.060577739814105</v>
+        <v>1.025484790540862</v>
       </c>
       <c r="N15">
-        <v>1.019116071608232</v>
+        <v>1.007808824026261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04014807624472</v>
+        <v>0.9874321761359194</v>
       </c>
       <c r="D16">
-        <v>1.045960562531865</v>
+        <v>1.012386566163684</v>
       </c>
       <c r="E16">
-        <v>1.048140070052401</v>
+        <v>1.005643177888539</v>
       </c>
       <c r="F16">
-        <v>1.057781937591566</v>
+        <v>1.014363707486564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038095627964832</v>
+        <v>1.044396910672971</v>
       </c>
       <c r="J16">
-        <v>1.046436337358992</v>
+        <v>1.01607504366747</v>
       </c>
       <c r="K16">
-        <v>1.049362948465546</v>
+        <v>1.026499689971259</v>
       </c>
       <c r="L16">
-        <v>1.051534867833142</v>
+        <v>1.019874904517059</v>
       </c>
       <c r="M16">
-        <v>1.061143578914685</v>
+        <v>1.028442444189106</v>
       </c>
       <c r="N16">
-        <v>1.019291021493917</v>
+        <v>1.008750501637118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040610109533096</v>
+        <v>0.9899261110869623</v>
       </c>
       <c r="D17">
-        <v>1.046314316769289</v>
+        <v>1.014269582314881</v>
       </c>
       <c r="E17">
-        <v>1.048544510574196</v>
+        <v>1.007708436057594</v>
       </c>
       <c r="F17">
-        <v>1.058208118600256</v>
+        <v>1.01654471751317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038198763212842</v>
+        <v>1.045180561140722</v>
       </c>
       <c r="J17">
-        <v>1.046760910271346</v>
+        <v>1.017776995189542</v>
       </c>
       <c r="K17">
-        <v>1.049644601226944</v>
+        <v>1.028031955986478</v>
       </c>
       <c r="L17">
-        <v>1.051867208149447</v>
+        <v>1.02158264504279</v>
       </c>
       <c r="M17">
-        <v>1.061498347276946</v>
+        <v>1.030268745966879</v>
       </c>
       <c r="N17">
-        <v>1.019400648506613</v>
+        <v>1.009331569023798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.040879581442395</v>
+        <v>0.9913667651868171</v>
       </c>
       <c r="D18">
-        <v>1.046520599002683</v>
+        <v>1.015357776205998</v>
       </c>
       <c r="E18">
-        <v>1.048780432052917</v>
+        <v>1.008902456078938</v>
       </c>
       <c r="F18">
-        <v>1.058456712609434</v>
+        <v>1.017805583194633</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038258692319826</v>
+        <v>1.045631631732437</v>
       </c>
       <c r="J18">
-        <v>1.046950144221374</v>
+        <v>1.018759940584362</v>
       </c>
       <c r="K18">
-        <v>1.049808753235291</v>
+        <v>1.028916577459939</v>
       </c>
       <c r="L18">
-        <v>1.052061003546034</v>
+        <v>1.022569270749133</v>
       </c>
       <c r="M18">
-        <v>1.061705217488437</v>
+        <v>1.031323887585788</v>
       </c>
       <c r="N18">
-        <v>1.019464550913006</v>
+        <v>1.009667133234192</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040971460332051</v>
+        <v>0.9918556588761539</v>
       </c>
       <c r="D19">
-        <v>1.046590926321086</v>
+        <v>1.015727132332056</v>
       </c>
       <c r="E19">
-        <v>1.048860878282935</v>
+        <v>1.009307819094987</v>
       </c>
       <c r="F19">
-        <v>1.058541478433082</v>
+        <v>1.018233626987726</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03827908793841</v>
+        <v>1.045784428298139</v>
       </c>
       <c r="J19">
-        <v>1.047014653895006</v>
+        <v>1.019093470596199</v>
       </c>
       <c r="K19">
-        <v>1.049864702575782</v>
+        <v>1.029216688676448</v>
       </c>
       <c r="L19">
-        <v>1.052127073784747</v>
+        <v>1.022904106421742</v>
       </c>
       <c r="M19">
-        <v>1.061775744698413</v>
+        <v>1.031681978689414</v>
       </c>
       <c r="N19">
-        <v>1.019486333004086</v>
+        <v>1.009780991208467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040560540258624</v>
+        <v>0.9896599960618881</v>
       </c>
       <c r="D20">
-        <v>1.046276368147712</v>
+        <v>1.014068608192261</v>
       </c>
       <c r="E20">
-        <v>1.048501116059829</v>
+        <v>1.007487958706231</v>
       </c>
       <c r="F20">
-        <v>1.05816239239894</v>
+        <v>1.01631189087423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03818772135441</v>
+        <v>1.045097108881803</v>
       </c>
       <c r="J20">
-        <v>1.046726095357328</v>
+        <v>1.017595409818629</v>
       </c>
       <c r="K20">
-        <v>1.049614396133835</v>
+        <v>1.027868508170287</v>
       </c>
       <c r="L20">
-        <v>1.051831556674649</v>
+        <v>1.021400406977092</v>
       </c>
       <c r="M20">
-        <v>1.061460290217644</v>
+        <v>1.030073853873899</v>
       </c>
       <c r="N20">
-        <v>1.01938889082597</v>
+        <v>1.009269576102456</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039224309982309</v>
+        <v>0.9823534594942382</v>
       </c>
       <c r="D21">
-        <v>1.045253042595909</v>
+        <v>1.008555151760744</v>
       </c>
       <c r="E21">
-        <v>1.047331706193697</v>
+        <v>1.001444191557355</v>
       </c>
       <c r="F21">
-        <v>1.056930061020126</v>
+        <v>1.009928893407004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03788800043394</v>
+        <v>1.042790726975388</v>
       </c>
       <c r="J21">
-        <v>1.045786975297663</v>
+        <v>1.012607962617293</v>
       </c>
       <c r="K21">
-        <v>1.048799081548813</v>
+        <v>1.023376236832676</v>
       </c>
       <c r="L21">
-        <v>1.050870176464575</v>
+        <v>1.016398254845524</v>
       </c>
       <c r="M21">
-        <v>1.060434008492591</v>
+        <v>1.024724570183717</v>
       </c>
       <c r="N21">
-        <v>1.019071612497734</v>
+        <v>1.00756665465121</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03838393822367</v>
+        <v>0.9776223142484423</v>
       </c>
       <c r="D22">
-        <v>1.044609124112225</v>
+        <v>1.004990126051166</v>
       </c>
       <c r="E22">
-        <v>1.046596610557763</v>
+        <v>0.9975407368603226</v>
       </c>
       <c r="F22">
-        <v>1.056155328931732</v>
+        <v>1.005805664084382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037697499554692</v>
+        <v>1.041282958081029</v>
       </c>
       <c r="J22">
-        <v>1.04519575150723</v>
+        <v>1.009377105442075</v>
       </c>
       <c r="K22">
-        <v>1.048285274658959</v>
+        <v>1.020463371532309</v>
       </c>
       <c r="L22">
-        <v>1.050265235502829</v>
+        <v>1.013161070167542</v>
       </c>
       <c r="M22">
-        <v>1.059788197771026</v>
+        <v>1.021262980359692</v>
       </c>
       <c r="N22">
-        <v>1.018871754716415</v>
+        <v>1.006463343175185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038829457644829</v>
+        <v>0.9801439544758165</v>
       </c>
       <c r="D23">
-        <v>1.044950526263251</v>
+        <v>1.00688971664033</v>
       </c>
       <c r="E23">
-        <v>1.046986283852695</v>
+        <v>0.9996202473401272</v>
       </c>
       <c r="F23">
-        <v>1.056566021396874</v>
+        <v>1.00800231897723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037798682459764</v>
+        <v>1.042087895247541</v>
       </c>
       <c r="J23">
-        <v>1.045509242898573</v>
+        <v>1.011099211936018</v>
       </c>
       <c r="K23">
-        <v>1.048557766028746</v>
+        <v>1.02201623296814</v>
       </c>
       <c r="L23">
-        <v>1.050585972176144</v>
+        <v>1.014886244938656</v>
       </c>
       <c r="M23">
-        <v>1.060130606295264</v>
+        <v>1.023107719567957</v>
       </c>
       <c r="N23">
-        <v>1.01897773846406</v>
+        <v>1.007051440168256</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040582938554625</v>
+        <v>0.9897802851848008</v>
       </c>
       <c r="D24">
-        <v>1.046293515671052</v>
+        <v>1.01415945100021</v>
       </c>
       <c r="E24">
-        <v>1.048520724116558</v>
+        <v>1.007587615636263</v>
       </c>
       <c r="F24">
-        <v>1.05818305407035</v>
+        <v>1.0164171299829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038192711399112</v>
+        <v>1.0451348359312</v>
       </c>
       <c r="J24">
-        <v>1.046741826977436</v>
+        <v>1.017677490562783</v>
       </c>
       <c r="K24">
-        <v>1.04962804492064</v>
+        <v>1.027942391331481</v>
       </c>
       <c r="L24">
-        <v>1.051847666205262</v>
+        <v>1.021482781709428</v>
       </c>
       <c r="M24">
-        <v>1.061477486750231</v>
+        <v>1.030161948386609</v>
       </c>
       <c r="N24">
-        <v>1.019394203742885</v>
+        <v>1.009297598402025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042616808666903</v>
+        <v>1.000417294895664</v>
       </c>
       <c r="D25">
-        <v>1.047849760037479</v>
+        <v>1.022200805728824</v>
       </c>
       <c r="E25">
-        <v>1.050302071568302</v>
+        <v>1.016420296808968</v>
       </c>
       <c r="F25">
-        <v>1.060059918811322</v>
+        <v>1.025742926473442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038641018861474</v>
+        <v>1.04843589564402</v>
       </c>
       <c r="J25">
-        <v>1.048168882164471</v>
+        <v>1.024930623559372</v>
       </c>
       <c r="K25">
-        <v>1.050864895720954</v>
+        <v>1.034463988033884</v>
       </c>
       <c r="L25">
-        <v>1.053309711727438</v>
+        <v>1.028768946426504</v>
       </c>
       <c r="M25">
-        <v>1.063038108317687</v>
+        <v>1.037954340728751</v>
       </c>
       <c r="N25">
-        <v>1.01987587393532</v>
+        <v>1.01177317266718</v>
       </c>
     </row>
   </sheetData>
